--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="7395"/>
@@ -14,12 +14,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:R9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -147,6 +146,18 @@
   </si>
   <si>
     <t>bs/renter/partner/lts</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +484,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -819,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,7 +848,8 @@
     <col min="10" max="10" width="33" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="5" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="5" customWidth="1"/>
-    <col min="13" max="14" width="10" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="6" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="6" customWidth="1"/>
     <col min="16" max="16" width="12" style="7" customWidth="1"/>
     <col min="17" max="17" width="17" style="7" customWidth="1"/>
@@ -1031,9 +1043,15 @@
       <c r="L4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42653</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -1075,9 +1093,15 @@
       <c r="L5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="20"/>
+      <c r="M5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42653</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="7395"/>
@@ -13,12 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -160,12 +160,20 @@
     <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -827,14 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="6" customWidth="1"/>
@@ -859,7 +867,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="27">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -918,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -953,16 +961,22 @@
       <c r="L2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="20"/>
+      <c r="M2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42653</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="24"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1008,7 +1022,7 @@
       </c>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1058,7 +1072,7 @@
       <c r="S4" s="26"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1108,7 +1122,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1130,7 +1144,7 @@
       <c r="S6" s="26"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
@@ -1152,7 +1166,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -1174,7 +1188,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
@@ -1196,7 +1210,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -1218,7 +1232,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
@@ -1240,7 +1254,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -1262,7 +1276,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -1284,7 +1298,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -1306,7 +1320,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
@@ -1328,7 +1342,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
@@ -1350,7 +1364,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
@@ -1372,7 +1386,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -1394,7 +1408,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -1416,7 +1430,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -1438,7 +1452,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
@@ -1460,7 +1474,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="4" customFormat="1" ht="16.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="13"/>
@@ -1482,7 +1496,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" ht="16.5">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
@@ -1503,7 +1517,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="16.5">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
@@ -1524,7 +1538,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" ht="16.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
@@ -1545,7 +1559,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="16.5">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
@@ -1566,7 +1580,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
@@ -1587,7 +1601,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="15"/>
@@ -1608,7 +1622,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
@@ -1629,7 +1643,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
@@ -1650,7 +1664,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
@@ -1671,7 +1685,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
@@ -1692,7 +1706,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="15"/>
@@ -1713,7 +1727,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
@@ -1734,7 +1748,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
@@ -1755,7 +1769,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
@@ -1776,7 +1790,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="15"/>
@@ -1797,7 +1811,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
@@ -1818,7 +1832,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
@@ -1839,7 +1853,7 @@
       <c r="R39" s="15"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
@@ -1860,7 +1874,7 @@
       <c r="R40" s="15"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
@@ -1881,7 +1895,7 @@
       <c r="R41" s="15"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
@@ -1902,7 +1916,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="15"/>
@@ -1923,7 +1937,7 @@
       <c r="R43" s="15"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="15"/>
@@ -1944,7 +1958,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="15"/>
@@ -1965,7 +1979,7 @@
       <c r="R45" s="15"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="15"/>
@@ -1986,7 +2000,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="15"/>
@@ -2007,7 +2021,7 @@
       <c r="R47" s="15"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="15"/>
@@ -2028,7 +2042,7 @@
       <c r="R48" s="15"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="15"/>
@@ -2049,7 +2063,7 @@
       <c r="R49" s="15"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
@@ -2070,7 +2084,7 @@
       <c r="R50" s="15"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="15"/>
@@ -2091,7 +2105,7 @@
       <c r="R51" s="15"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="15"/>
@@ -2112,7 +2126,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="15"/>
@@ -2133,7 +2147,7 @@
       <c r="R53" s="15"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="15"/>
@@ -2154,7 +2168,7 @@
       <c r="R54" s="15"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="15"/>
@@ -2175,7 +2189,7 @@
       <c r="R55" s="15"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="15"/>
@@ -2196,7 +2210,7 @@
       <c r="R56" s="15"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="15"/>
@@ -2217,7 +2231,7 @@
       <c r="R57" s="15"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="15"/>
@@ -2238,7 +2252,7 @@
       <c r="R58" s="15"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="15"/>
@@ -2259,7 +2273,7 @@
       <c r="R59" s="15"/>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="15"/>
@@ -2280,7 +2294,7 @@
       <c r="R60" s="15"/>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="15"/>
@@ -2301,7 +2315,7 @@
       <c r="R61" s="15"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="15"/>
@@ -2322,7 +2336,7 @@
       <c r="R62" s="15"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="15"/>
@@ -2343,7 +2357,7 @@
       <c r="R63" s="15"/>
       <c r="S63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="15"/>
@@ -2364,7 +2378,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="15"/>
@@ -2385,7 +2399,7 @@
       <c r="R65" s="15"/>
       <c r="S65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="15"/>
@@ -2406,7 +2420,7 @@
       <c r="R66" s="15"/>
       <c r="S66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="15"/>
@@ -2427,7 +2441,7 @@
       <c r="R67" s="15"/>
       <c r="S67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="15"/>
@@ -2448,7 +2462,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="15"/>
@@ -2469,7 +2483,7 @@
       <c r="R69" s="15"/>
       <c r="S69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="15"/>
@@ -2490,7 +2504,7 @@
       <c r="R70" s="15"/>
       <c r="S70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="15"/>
@@ -2511,7 +2525,7 @@
       <c r="R71" s="15"/>
       <c r="S71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="15"/>
@@ -2532,7 +2546,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="15"/>
@@ -2553,7 +2567,7 @@
       <c r="R73" s="15"/>
       <c r="S73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="15"/>
@@ -2574,7 +2588,7 @@
       <c r="R74" s="15"/>
       <c r="S74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="15"/>
@@ -2595,7 +2609,7 @@
       <c r="R75" s="15"/>
       <c r="S75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="15"/>
@@ -2616,7 +2630,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="15"/>
@@ -2637,7 +2651,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="15"/>
@@ -2658,7 +2672,7 @@
       <c r="R78" s="15"/>
       <c r="S78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="15"/>
@@ -2679,7 +2693,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="15"/>
@@ -2700,7 +2714,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="15"/>
@@ -2721,7 +2735,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="16"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
@@ -2742,7 +2756,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="16"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="15"/>
@@ -2763,7 +2777,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="16"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="15"/>
@@ -2784,7 +2798,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="16"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="15"/>
@@ -2805,7 +2819,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="16"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="15"/>
@@ -2826,7 +2840,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="16"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="15"/>
@@ -2847,7 +2861,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="15"/>
@@ -2868,7 +2882,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="16"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="15"/>
@@ -2889,7 +2903,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="15"/>
@@ -2910,7 +2924,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="16"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="15"/>
@@ -2931,7 +2945,7 @@
       <c r="R91" s="15"/>
       <c r="S91" s="16"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="15"/>
@@ -2952,7 +2966,7 @@
       <c r="R92" s="15"/>
       <c r="S92" s="16"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="15"/>
@@ -2973,7 +2987,7 @@
       <c r="R93" s="15"/>
       <c r="S93" s="16"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="15"/>
@@ -2994,7 +3008,7 @@
       <c r="R94" s="15"/>
       <c r="S94" s="16"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="15"/>
@@ -3015,7 +3029,7 @@
       <c r="R95" s="15"/>
       <c r="S95" s="16"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="15"/>
@@ -3036,7 +3050,7 @@
       <c r="R96" s="15"/>
       <c r="S96" s="16"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="15"/>
@@ -3057,7 +3071,7 @@
       <c r="R97" s="15"/>
       <c r="S97" s="16"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="15"/>
@@ -3078,7 +3092,7 @@
       <c r="R98" s="15"/>
       <c r="S98" s="16"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="15"/>
@@ -3099,7 +3113,7 @@
       <c r="R99" s="15"/>
       <c r="S99" s="16"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="15"/>
@@ -3120,7 +3134,7 @@
       <c r="R100" s="15"/>
       <c r="S100" s="16"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="15"/>
@@ -3141,7 +3155,7 @@
       <c r="R101" s="15"/>
       <c r="S101" s="16"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="15"/>
@@ -3162,7 +3176,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="16"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="15"/>
@@ -3183,7 +3197,7 @@
       <c r="R103" s="15"/>
       <c r="S103" s="16"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="15"/>
@@ -3204,7 +3218,7 @@
       <c r="R104" s="15"/>
       <c r="S104" s="16"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="15"/>
@@ -3225,7 +3239,7 @@
       <c r="R105" s="15"/>
       <c r="S105" s="16"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="15"/>
@@ -3246,7 +3260,7 @@
       <c r="R106" s="15"/>
       <c r="S106" s="16"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="15"/>
@@ -3267,7 +3281,7 @@
       <c r="R107" s="15"/>
       <c r="S107" s="16"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="15"/>
@@ -3288,7 +3302,7 @@
       <c r="R108" s="15"/>
       <c r="S108" s="16"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="15"/>
@@ -3309,7 +3323,7 @@
       <c r="R109" s="15"/>
       <c r="S109" s="16"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="15"/>
@@ -3330,7 +3344,7 @@
       <c r="R110" s="15"/>
       <c r="S110" s="16"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="15"/>
@@ -3351,7 +3365,7 @@
       <c r="R111" s="15"/>
       <c r="S111" s="16"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="15"/>
@@ -3372,7 +3386,7 @@
       <c r="R112" s="15"/>
       <c r="S112" s="16"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="15"/>
@@ -3393,7 +3407,7 @@
       <c r="R113" s="15"/>
       <c r="S113" s="16"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="15"/>
@@ -3414,7 +3428,7 @@
       <c r="R114" s="15"/>
       <c r="S114" s="16"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="15"/>
       <c r="B115" s="16"/>
       <c r="C115" s="15"/>
@@ -3435,7 +3449,7 @@
       <c r="R115" s="15"/>
       <c r="S115" s="16"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="15"/>
@@ -3456,7 +3470,7 @@
       <c r="R116" s="15"/>
       <c r="S116" s="16"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="15"/>
       <c r="B117" s="16"/>
       <c r="C117" s="15"/>
@@ -3477,7 +3491,7 @@
       <c r="R117" s="15"/>
       <c r="S117" s="16"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="15"/>
@@ -3498,7 +3512,7 @@
       <c r="R118" s="15"/>
       <c r="S118" s="16"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="15"/>
@@ -3519,7 +3533,7 @@
       <c r="R119" s="15"/>
       <c r="S119" s="16"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="15"/>
@@ -3540,7 +3554,7 @@
       <c r="R120" s="15"/>
       <c r="S120" s="16"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="15"/>
@@ -3561,7 +3575,7 @@
       <c r="R121" s="15"/>
       <c r="S121" s="16"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="15"/>
@@ -3582,7 +3596,7 @@
       <c r="R122" s="15"/>
       <c r="S122" s="16"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="15"/>
@@ -3603,7 +3617,7 @@
       <c r="R123" s="15"/>
       <c r="S123" s="16"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="15"/>
       <c r="B124" s="16"/>
       <c r="C124" s="15"/>
@@ -3624,7 +3638,7 @@
       <c r="R124" s="15"/>
       <c r="S124" s="16"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="15"/>
       <c r="B125" s="16"/>
       <c r="C125" s="15"/>
@@ -3645,7 +3659,7 @@
       <c r="R125" s="15"/>
       <c r="S125" s="16"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="15"/>
       <c r="B126" s="16"/>
       <c r="C126" s="15"/>
@@ -3666,7 +3680,7 @@
       <c r="R126" s="15"/>
       <c r="S126" s="16"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="15"/>
       <c r="B127" s="16"/>
       <c r="C127" s="15"/>
@@ -3687,7 +3701,7 @@
       <c r="R127" s="15"/>
       <c r="S127" s="16"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="15"/>
       <c r="B128" s="16"/>
       <c r="C128" s="15"/>
@@ -3708,7 +3722,7 @@
       <c r="R128" s="15"/>
       <c r="S128" s="16"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
       <c r="C129" s="15"/>
@@ -3729,7 +3743,7 @@
       <c r="R129" s="15"/>
       <c r="S129" s="16"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="15"/>
       <c r="B130" s="16"/>
       <c r="C130" s="15"/>
@@ -3750,7 +3764,7 @@
       <c r="R130" s="15"/>
       <c r="S130" s="16"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="15"/>
       <c r="B131" s="16"/>
       <c r="C131" s="15"/>
@@ -3771,7 +3785,7 @@
       <c r="R131" s="15"/>
       <c r="S131" s="16"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="15"/>
@@ -3792,7 +3806,7 @@
       <c r="R132" s="15"/>
       <c r="S132" s="16"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="15"/>
@@ -3813,7 +3827,7 @@
       <c r="R133" s="15"/>
       <c r="S133" s="16"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="15"/>
@@ -3834,7 +3848,7 @@
       <c r="R134" s="15"/>
       <c r="S134" s="16"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="15"/>
@@ -3855,7 +3869,7 @@
       <c r="R135" s="15"/>
       <c r="S135" s="16"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="15"/>
@@ -3876,7 +3890,7 @@
       <c r="R136" s="15"/>
       <c r="S136" s="16"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="15"/>
@@ -3897,7 +3911,7 @@
       <c r="R137" s="15"/>
       <c r="S137" s="16"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="15"/>
@@ -3918,7 +3932,7 @@
       <c r="R138" s="15"/>
       <c r="S138" s="16"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="15"/>
       <c r="B139" s="16"/>
       <c r="C139" s="15"/>
@@ -3939,7 +3953,7 @@
       <c r="R139" s="15"/>
       <c r="S139" s="16"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="15"/>
@@ -3960,7 +3974,7 @@
       <c r="R140" s="15"/>
       <c r="S140" s="16"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="15"/>
@@ -3981,7 +3995,7 @@
       <c r="R141" s="15"/>
       <c r="S141" s="16"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="15"/>
       <c r="B142" s="16"/>
       <c r="C142" s="15"/>
@@ -4002,7 +4016,7 @@
       <c r="R142" s="15"/>
       <c r="S142" s="16"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="15"/>
@@ -4023,7 +4037,7 @@
       <c r="R143" s="15"/>
       <c r="S143" s="16"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="15"/>
       <c r="B144" s="16"/>
       <c r="C144" s="15"/>
@@ -4041,7 +4055,7 @@
       <c r="O144" s="16"/>
       <c r="S144" s="16"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
       <c r="C145" s="15"/>
@@ -4059,7 +4073,7 @@
       <c r="O145" s="16"/>
       <c r="S145" s="16"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="15"/>
       <c r="B146" s="16"/>
       <c r="C146" s="15"/>
@@ -4077,7 +4091,7 @@
       <c r="O146" s="16"/>
       <c r="S146" s="16"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="15"/>
       <c r="B147" s="16"/>
       <c r="C147" s="15"/>
@@ -4095,7 +4109,7 @@
       <c r="O147" s="16"/>
       <c r="S147" s="16"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="15"/>
       <c r="B148" s="16"/>
       <c r="C148" s="15"/>
@@ -4113,7 +4127,7 @@
       <c r="O148" s="16"/>
       <c r="S148" s="16"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="15"/>
       <c r="B149" s="16"/>
       <c r="C149" s="15"/>
@@ -4131,7 +4145,7 @@
       <c r="O149" s="16"/>
       <c r="S149" s="16"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="15"/>
       <c r="B150" s="16"/>
       <c r="C150" s="15"/>
@@ -4149,7 +4163,7 @@
       <c r="O150" s="16"/>
       <c r="S150" s="16"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="15"/>
       <c r="B151" s="16"/>
       <c r="C151" s="15"/>
@@ -4167,7 +4181,7 @@
       <c r="O151" s="16"/>
       <c r="S151" s="16"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="15"/>
       <c r="B152" s="16"/>
       <c r="C152" s="15"/>
@@ -4185,7 +4199,7 @@
       <c r="O152" s="16"/>
       <c r="S152" s="16"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="15"/>
       <c r="B153" s="16"/>
       <c r="C153" s="15"/>
@@ -4203,7 +4217,7 @@
       <c r="O153" s="16"/>
       <c r="S153" s="16"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="15"/>
       <c r="B154" s="16"/>
       <c r="C154" s="15"/>
@@ -4221,7 +4235,7 @@
       <c r="O154" s="16"/>
       <c r="S154" s="16"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="15"/>
       <c r="B155" s="16"/>
       <c r="C155" s="15"/>
@@ -4239,7 +4253,7 @@
       <c r="O155" s="16"/>
       <c r="S155" s="16"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="15"/>
       <c r="B156" s="16"/>
       <c r="C156" s="15"/>
@@ -4257,7 +4271,7 @@
       <c r="O156" s="16"/>
       <c r="S156" s="16"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="15"/>
       <c r="B157" s="16"/>
       <c r="C157" s="15"/>
@@ -4275,7 +4289,7 @@
       <c r="O157" s="16"/>
       <c r="S157" s="16"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="15"/>
       <c r="B158" s="16"/>
       <c r="C158" s="15"/>
@@ -4293,7 +4307,7 @@
       <c r="O158" s="16"/>
       <c r="S158" s="16"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="15"/>
       <c r="B159" s="16"/>
       <c r="C159" s="15"/>
@@ -4311,7 +4325,7 @@
       <c r="O159" s="16"/>
       <c r="S159" s="16"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="15"/>
       <c r="B160" s="16"/>
       <c r="C160" s="15"/>
@@ -4329,7 +4343,7 @@
       <c r="O160" s="16"/>
       <c r="S160" s="16"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="15"/>
       <c r="B161" s="16"/>
       <c r="C161" s="15"/>
@@ -4347,7 +4361,7 @@
       <c r="O161" s="16"/>
       <c r="S161" s="16"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="15"/>
       <c r="B162" s="16"/>
       <c r="C162" s="15"/>
@@ -4365,7 +4379,7 @@
       <c r="O162" s="16"/>
       <c r="S162" s="16"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="15"/>
       <c r="B163" s="16"/>
       <c r="C163" s="15"/>
@@ -4383,7 +4397,7 @@
       <c r="O163" s="16"/>
       <c r="S163" s="16"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="15"/>
       <c r="B164" s="16"/>
       <c r="C164" s="15"/>
@@ -4401,7 +4415,7 @@
       <c r="O164" s="16"/>
       <c r="S164" s="16"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="15"/>
       <c r="B165" s="16"/>
       <c r="C165" s="15"/>
@@ -4419,7 +4433,7 @@
       <c r="O165" s="16"/>
       <c r="S165" s="16"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="15"/>
       <c r="B166" s="16"/>
       <c r="C166" s="15"/>
@@ -4437,7 +4451,7 @@
       <c r="O166" s="16"/>
       <c r="S166" s="16"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="15"/>
       <c r="B167" s="16"/>
       <c r="C167" s="15"/>
@@ -4455,7 +4469,7 @@
       <c r="O167" s="16"/>
       <c r="S167" s="16"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="15"/>
       <c r="B168" s="16"/>
       <c r="C168" s="15"/>
@@ -4473,7 +4487,7 @@
       <c r="O168" s="16"/>
       <c r="S168" s="16"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="15"/>
       <c r="B169" s="16"/>
       <c r="C169" s="15"/>
@@ -4491,7 +4505,7 @@
       <c r="O169" s="16"/>
       <c r="S169" s="16"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="15"/>
       <c r="B170" s="16"/>
       <c r="C170" s="15"/>
@@ -4509,7 +4523,7 @@
       <c r="O170" s="16"/>
       <c r="S170" s="16"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="15"/>
       <c r="B171" s="16"/>
       <c r="C171" s="15"/>
@@ -4527,7 +4541,7 @@
       <c r="O171" s="16"/>
       <c r="S171" s="16"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="15"/>
       <c r="B172" s="16"/>
       <c r="C172" s="15"/>
@@ -4545,7 +4559,7 @@
       <c r="O172" s="16"/>
       <c r="S172" s="16"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="15"/>
       <c r="B173" s="16"/>
       <c r="C173" s="15"/>
@@ -4563,7 +4577,7 @@
       <c r="O173" s="16"/>
       <c r="S173" s="16"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="15"/>
       <c r="B174" s="16"/>
       <c r="C174" s="15"/>
@@ -4581,7 +4595,7 @@
       <c r="O174" s="16"/>
       <c r="S174" s="16"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="15"/>
       <c r="B175" s="16"/>
       <c r="C175" s="15"/>
@@ -4599,7 +4613,7 @@
       <c r="O175" s="16"/>
       <c r="S175" s="16"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="15"/>
       <c r="B176" s="16"/>
       <c r="C176" s="15"/>
@@ -4617,7 +4631,7 @@
       <c r="O176" s="16"/>
       <c r="S176" s="16"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="15"/>
       <c r="B177" s="16"/>
       <c r="C177" s="15"/>
@@ -4635,7 +4649,7 @@
       <c r="O177" s="16"/>
       <c r="S177" s="16"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="15"/>
       <c r="B178" s="16"/>
       <c r="C178" s="15"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_架构组.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="7395"/>
+    <workbookView windowWidth="27345" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3新特性|Fix Bug'!$A$1:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3新特性|Fix Bug'!$A$1:$S$5</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>No</t>
   </si>
@@ -98,7 +98,16 @@
     <t>吴永余</t>
   </si>
   <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>提现优化与安全加固</t>
+  </si>
+  <si>
+    <t>bs/renter/partner/lts</t>
   </si>
   <si>
     <t>冯银鹏</t>
@@ -112,68 +121,65 @@
   </si>
   <si>
     <t>缓存优化二期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>重要数据转移至Redis</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>王涛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>余星赞</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>所有项目DB连接池更换至</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>DBCP</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连接池优化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs/renter/partner/lts</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,80 +188,192 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,32 +388,203 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,6 +629,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -352,132 +656,420 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="58">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="7"/>
+  <cellStyles count="58">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="甘特图" xfId="1"/>
+    <cellStyle name="常规 9" xfId="2"/>
+    <cellStyle name="常规 6" xfId="3"/>
     <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="甘特图" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
+    <cellStyle name="常规 5" xfId="8"/>
+    <cellStyle name="Accent6" xfId="9" builtinId="49"/>
+    <cellStyle name="常规" xfId="10"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="12" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="13" builtinId="44"/>
+    <cellStyle name="常规 4" xfId="14"/>
+    <cellStyle name="Accent5" xfId="15" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="16" builtinId="43"/>
+    <cellStyle name="常规 3" xfId="17"/>
+    <cellStyle name="Accent4" xfId="18" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="20" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="21" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="22"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="25" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="26" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="28" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="29" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
+    <cellStyle name="Bad" xfId="32" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="33" builtinId="42"/>
+    <cellStyle name="Total" xfId="34" builtinId="25"/>
+    <cellStyle name="Output" xfId="35" builtinId="21"/>
+    <cellStyle name="Currency" xfId="36" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
+    <cellStyle name="Note" xfId="38" builtinId="10"/>
+    <cellStyle name="Input" xfId="39" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="40" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="41" builtinId="22"/>
+    <cellStyle name="Good" xfId="42" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="43" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="44" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="46" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="47" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="48" builtinId="50"/>
+    <cellStyle name="Title" xfId="49" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="50" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="51" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="54" builtinId="17"/>
+    <cellStyle name="Comma" xfId="55" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
+    <cellStyle name="Percent" xfId="57" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -496,14 +1088,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -512,7 +1096,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -835,39 +1419,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="33" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12" style="7" customWidth="1"/>
-    <col min="17" max="17" width="17" style="7" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="41.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="33" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12" style="6" customWidth="1"/>
+    <col min="17" max="17" width="17" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="41.875" style="5" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="27">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:20">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -962,13 +1547,13 @@
         <v>25</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N2" s="17">
         <v>42653</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
@@ -976,18 +1561,18 @@
       <c r="S2" s="24"/>
       <c r="T2" s="25"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="70.5" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:20">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>22</v>
@@ -1003,37 +1588,43 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42654</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
       <c r="S3" s="24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="45" customHeight="1">
+    <row r="4" s="3" customFormat="1" ht="45" customHeight="1" spans="1:20">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>22</v>
@@ -1049,13 +1640,13 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>37</v>
@@ -1064,7 +1655,7 @@
         <v>42653</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1072,18 +1663,18 @@
       <c r="S4" s="26"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="51.75" customHeight="1">
+    <row r="5" s="3" customFormat="1" ht="51.75" customHeight="1" spans="1:20">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>34</v>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>35</v>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>22</v>
@@ -1099,13 +1690,13 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>37</v>
@@ -1114,7 +1705,7 @@
         <v>42653</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1122,7 +1713,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="6" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1144,7 +1735,7 @@
       <c r="S6" s="26"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
@@ -1166,7 +1757,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="27"/>
     </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="8" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -1188,7 +1779,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="27"/>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="9" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A9" s="9"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
@@ -1210,7 +1801,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="10" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -1232,7 +1823,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="11" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11"/>
@@ -1254,7 +1845,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="12" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A12" s="9"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -1276,7 +1867,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="13" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
@@ -1298,7 +1889,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="14" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -1320,7 +1911,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="15" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
@@ -1342,7 +1933,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="16" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
@@ -1364,7 +1955,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="17" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
@@ -1386,7 +1977,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="18" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A18" s="9"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -1408,7 +1999,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="19" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A19" s="9"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -1430,7 +2021,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="20" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A20" s="9"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -1452,7 +2043,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="21" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
@@ -1474,7 +2065,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="1:20" s="4" customFormat="1" ht="16.5">
+    <row r="22" s="3" customFormat="1" ht="13.5" spans="1:20">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="13"/>
@@ -1496,7 +2087,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5">
+    <row r="23" ht="13.5" spans="1:19">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
@@ -1517,7 +2108,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" ht="13.5" spans="1:19">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
@@ -1538,7 +2129,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
+    <row r="25" ht="13.5" spans="1:19">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
@@ -1559,7 +2150,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5">
+    <row r="26" ht="13.5" spans="1:19">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
@@ -1580,7 +2171,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5">
+    <row r="27" ht="13.5" spans="1:19">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
@@ -1601,7 +2192,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" ht="13.5" spans="1:19">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="15"/>
@@ -1622,7 +2213,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5">
+    <row r="29" ht="13.5" spans="1:19">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
@@ -1643,7 +2234,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
+    <row r="30" ht="13.5" spans="1:19">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
@@ -1664,7 +2255,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5">
+    <row r="31" ht="13.5" spans="1:19">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
@@ -1685,7 +2276,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
+    <row r="32" ht="13.5" spans="1:19">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
@@ -1706,7 +2297,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" ht="13.5" spans="1:19">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="15"/>
@@ -1727,7 +2318,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" ht="13.5" spans="1:19">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
@@ -1748,7 +2339,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" ht="13.5" spans="1:19">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
@@ -1769,7 +2360,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" ht="13.5" spans="1:19">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
@@ -1790,7 +2381,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" ht="13.5" spans="1:19">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="15"/>
@@ -1811,7 +2402,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" ht="13.5" spans="1:19">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
@@ -1832,7 +2423,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" ht="13.5" spans="1:19">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
@@ -1853,7 +2444,7 @@
       <c r="R39" s="15"/>
       <c r="S39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" ht="13.5" spans="1:19">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
@@ -1874,7 +2465,7 @@
       <c r="R40" s="15"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" ht="13.5" spans="1:19">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
@@ -1895,7 +2486,7 @@
       <c r="R41" s="15"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" ht="13.5" spans="1:19">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
@@ -1916,7 +2507,7 @@
       <c r="R42" s="15"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" ht="13.5" spans="1:19">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="15"/>
@@ -1937,7 +2528,7 @@
       <c r="R43" s="15"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" ht="13.5" spans="1:19">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="15"/>
@@ -1958,7 +2549,7 @@
       <c r="R44" s="15"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" ht="13.5" spans="1:19">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="15"/>
@@ -1979,7 +2570,7 @@
       <c r="R45" s="15"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" ht="13.5" spans="1:19">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="15"/>
@@ -2000,7 +2591,7 @@
       <c r="R46" s="15"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" ht="13.5" spans="1:19">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="15"/>
@@ -2021,7 +2612,7 @@
       <c r="R47" s="15"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" ht="13.5" spans="1:19">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="15"/>
@@ -2042,7 +2633,7 @@
       <c r="R48" s="15"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" ht="13.5" spans="1:19">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="15"/>
@@ -2063,7 +2654,7 @@
       <c r="R49" s="15"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" ht="13.5" spans="1:19">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
@@ -2084,7 +2675,7 @@
       <c r="R50" s="15"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" ht="13.5" spans="1:19">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="15"/>
@@ -2105,7 +2696,7 @@
       <c r="R51" s="15"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" ht="13.5" spans="1:19">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="15"/>
@@ -2126,7 +2717,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" ht="13.5" spans="1:19">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="15"/>
@@ -2147,7 +2738,7 @@
       <c r="R53" s="15"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" ht="13.5" spans="1:19">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="15"/>
@@ -2168,7 +2759,7 @@
       <c r="R54" s="15"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" ht="13.5" spans="1:19">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="15"/>
@@ -2189,7 +2780,7 @@
       <c r="R55" s="15"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" ht="13.5" spans="1:19">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="15"/>
@@ -2210,7 +2801,7 @@
       <c r="R56" s="15"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" ht="13.5" spans="1:19">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="15"/>
@@ -2231,7 +2822,7 @@
       <c r="R57" s="15"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" ht="13.5" spans="1:19">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="15"/>
@@ -2252,7 +2843,7 @@
       <c r="R58" s="15"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" ht="13.5" spans="1:19">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="15"/>
@@ -2273,7 +2864,7 @@
       <c r="R59" s="15"/>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" ht="13.5" spans="1:19">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="15"/>
@@ -2294,7 +2885,7 @@
       <c r="R60" s="15"/>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" ht="13.5" spans="1:19">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="15"/>
@@ -2315,7 +2906,7 @@
       <c r="R61" s="15"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" ht="13.5" spans="1:19">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="15"/>
@@ -2336,7 +2927,7 @@
       <c r="R62" s="15"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" ht="13.5" spans="1:19">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="15"/>
@@ -2357,7 +2948,7 @@
       <c r="R63" s="15"/>
       <c r="S63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" ht="13.5" spans="1:19">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="15"/>
@@ -2378,7 +2969,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" ht="13.5" spans="1:19">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="15"/>
@@ -2399,7 +2990,7 @@
       <c r="R65" s="15"/>
       <c r="S65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" ht="13.5" spans="1:19">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="15"/>
@@ -2420,7 +3011,7 @@
       <c r="R66" s="15"/>
       <c r="S66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" ht="13.5" spans="1:19">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="15"/>
@@ -2441,7 +3032,7 @@
       <c r="R67" s="15"/>
       <c r="S67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" ht="13.5" spans="1:19">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="15"/>
@@ -2462,7 +3053,7 @@
       <c r="R68" s="15"/>
       <c r="S68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" ht="13.5" spans="1:19">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="15"/>
@@ -2483,7 +3074,7 @@
       <c r="R69" s="15"/>
       <c r="S69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" ht="13.5" spans="1:19">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="15"/>
@@ -2504,7 +3095,7 @@
       <c r="R70" s="15"/>
       <c r="S70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" ht="13.5" spans="1:19">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="15"/>
@@ -2525,7 +3116,7 @@
       <c r="R71" s="15"/>
       <c r="S71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" ht="13.5" spans="1:19">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="15"/>
@@ -2546,7 +3137,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" ht="13.5" spans="1:19">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="15"/>
@@ -2567,7 +3158,7 @@
       <c r="R73" s="15"/>
       <c r="S73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" ht="13.5" spans="1:19">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="15"/>
@@ -2588,7 +3179,7 @@
       <c r="R74" s="15"/>
       <c r="S74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" ht="13.5" spans="1:19">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="15"/>
@@ -2609,7 +3200,7 @@
       <c r="R75" s="15"/>
       <c r="S75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" ht="13.5" spans="1:19">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="15"/>
@@ -2630,7 +3221,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" ht="13.5" spans="1:19">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="15"/>
@@ -2651,7 +3242,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" ht="13.5" spans="1:19">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="15"/>
@@ -2672,7 +3263,7 @@
       <c r="R78" s="15"/>
       <c r="S78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" ht="13.5" spans="1:19">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="15"/>
@@ -2693,7 +3284,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" ht="13.5" spans="1:19">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="15"/>
@@ -2714,7 +3305,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" ht="13.5" spans="1:19">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="15"/>
@@ -2735,7 +3326,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="16"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" ht="13.5" spans="1:19">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
@@ -2756,7 +3347,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="16"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" ht="13.5" spans="1:19">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="15"/>
@@ -4668,9 +5259,9 @@
       <c r="S178" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S2"/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <autoFilter ref="A1:S5"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>